--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value248.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value248.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.382178046241327</v>
+        <v>1.176317930221558</v>
       </c>
       <c r="B1">
-        <v>1.359583204707436</v>
+        <v>2.145128726959229</v>
       </c>
       <c r="C1">
-        <v>1.401243318964404</v>
+        <v>3.036573886871338</v>
       </c>
       <c r="D1">
-        <v>1.856862781201505</v>
+        <v>3.549987077713013</v>
       </c>
       <c r="E1">
-        <v>3.080411650589759</v>
+        <v>1.570531606674194</v>
       </c>
     </row>
   </sheetData>
